--- a/Observed_ACM_Ratios_from_Age_65_by_Frailty.xlsx
+++ b/Observed_ACM_Ratios_from_Age_65_by_Frailty.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\KCOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{704B9EE4-744B-458C-BA54-890979B2176B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E0C8AD-6B52-4406-A384-754F5645EE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{0B46A591-AB2F-4E18-BFFA-A752B1025736}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed_ACM_Ratios_from_Age_65" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Age</t>
   </si>
@@ -64,9 +77,6 @@
     <t>But the ACM ratio (which is what you MEASURE), drops.</t>
   </si>
   <si>
-    <t>The point is you cannot get frailty from looking at ACM ratios. It depends on when you acquired the frailty.</t>
-  </si>
-  <si>
     <t>Assuming you acquire frailty at age 65 given by the table, the value is the observed ACM ratio you'd measure</t>
   </si>
   <si>
@@ -74,6 +84,21 @@
   </si>
   <si>
     <t>Values are the observed ACM ratio</t>
+  </si>
+  <si>
+    <t>However, for all practical use purposes, this spreadsheet should never be used. You'd simply measure the ACM of the two cohorts (vaxxed v unvaxxed) at the point in time of interest to establish the frailty.</t>
+  </si>
+  <si>
+    <t>This spreadsheet is more of academic interest.</t>
+  </si>
+  <si>
+    <t>This does NOT imply frailty is gone by age 99.</t>
+  </si>
+  <si>
+    <t>People can acquire frailty starting at ANY age.</t>
+  </si>
+  <si>
+    <t>So it is best to measure the frailty of the fixed cohort you have and this will show how the frailty that you can measure via ACM ratios will change over time.</t>
   </si>
 </sst>
 </file>
@@ -938,7 +963,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A1:D2"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -948,7 +973,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -956,7 +981,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1184,7 +1209,7 @@
       <c r="I10">
         <v>4.1479999999999997</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1245,8 +1270,8 @@
       <c r="I12">
         <v>3.8279999999999998</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>15</v>
+      <c r="L12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -1306,6 +1331,9 @@
       <c r="I14">
         <v>3.5</v>
       </c>
+      <c r="L14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -1364,8 +1392,11 @@
       <c r="I16">
         <v>3.169</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>78</v>
       </c>
@@ -1394,7 +1425,7 @@
         <v>3.0049999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>79</v>
       </c>
@@ -1422,8 +1453,11 @@
       <c r="I18">
         <v>2.8439999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>80</v>
       </c>
@@ -1452,7 +1486,7 @@
         <v>2.6869999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>81</v>
       </c>
@@ -1480,8 +1514,11 @@
       <c r="I20">
         <v>2.5350000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>82</v>
       </c>
@@ -1510,7 +1547,7 @@
         <v>2.3879999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>83</v>
       </c>
@@ -1539,7 +1576,7 @@
         <v>2.2490000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>84</v>
       </c>
@@ -1568,7 +1605,7 @@
         <v>2.1160000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>85</v>
       </c>
@@ -1597,7 +1634,7 @@
         <v>1.992</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>86</v>
       </c>
@@ -1626,7 +1663,7 @@
         <v>1.8759999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>87</v>
       </c>
@@ -1655,7 +1692,7 @@
         <v>1.7689999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>88</v>
       </c>
@@ -1684,7 +1721,7 @@
         <v>1.671</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>89</v>
       </c>
@@ -1713,7 +1750,7 @@
         <v>1.581</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>90</v>
       </c>
@@ -1742,7 +1779,7 @@
         <v>1.5009999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>91</v>
       </c>
@@ -1771,7 +1808,7 @@
         <v>1.4279999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>92</v>
       </c>
@@ -1800,7 +1837,7 @@
         <v>1.363</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>93</v>
       </c>
